--- a/Luban/Config/Datas/item1.xlsx
+++ b/Luban/Config/Datas/item1.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\TEngine-main\Luban\Config\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A04F06-4445-42A3-995F-32519EA8196A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,20 +14,18 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{C38F2506-05BB-4046-9D2F-3ED9FE77606F}">
+    <comment ref="E5" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -41,9 +33,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -59,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="135">
   <si>
     <t>##var</t>
   </si>
@@ -111,9 +101,15 @@
     </r>
   </si>
   <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>Icon</t>
   </si>
   <si>
+    <t>levelLimit</t>
+  </si>
+  <si>
     <t>overlapping</t>
   </si>
   <si>
@@ -126,6 +122,9 @@
     <t>Quality</t>
   </si>
   <si>
+    <t>ItemTipsDes</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -136,6 +135,9 @@
   </si>
   <si>
     <t>bool</t>
+  </si>
+  <si>
+    <t>(list#sep=,),item.ItemTipsDes</t>
   </si>
   <si>
     <t>##group</t>
@@ -175,9 +177,15 @@
     <t>描述</t>
   </si>
   <si>
+    <t>道具类型</t>
+  </si>
+  <si>
     <t>图标</t>
   </si>
   <si>
+    <t>等级限制</t>
+  </si>
+  <si>
     <t>是否可重叠</t>
   </si>
   <si>
@@ -190,24 +198,39 @@
     <t>品质</t>
   </si>
   <si>
+    <t>道具UI效果描述</t>
+  </si>
+  <si>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>一种常用货币</t>
+  </si>
+  <si>
+    <t>postion_001</t>
+  </si>
+  <si>
+    <t>钻石</t>
+  </si>
+  <si>
+    <t>非常稀有的货币,可以有多种用途</t>
+  </si>
+  <si>
+    <t>postion_002</t>
+  </si>
+  <si>
     <t>橙色突状水晶</t>
   </si>
   <si>
     <t>这是一个凸起来的水晶</t>
   </si>
   <si>
-    <t>postion_001</t>
-  </si>
-  <si>
     <t>龙牙</t>
   </si>
   <si>
     <t>巨龙的牙齿</t>
   </si>
   <si>
-    <t>postion_002</t>
-  </si>
-  <si>
     <t>蓝色眼睛</t>
   </si>
   <si>
@@ -268,6 +291,9 @@
     <t>postion_009</t>
   </si>
   <si>
+    <t>恢复100MP,恢复3点精力</t>
+  </si>
+  <si>
     <t>魔法恢复药水(中)</t>
   </si>
   <si>
@@ -277,6 +303,9 @@
     <t>postion_010</t>
   </si>
   <si>
+    <t>恢复100</t>
+  </si>
+  <si>
     <t>究极魔法恢复药水</t>
   </si>
   <si>
@@ -295,6 +324,9 @@
     <t>postion_012</t>
   </si>
   <si>
+    <t>恢复101</t>
+  </si>
+  <si>
     <t>体力恢复药水(中)</t>
   </si>
   <si>
@@ -304,6 +336,9 @@
     <t>postion_013</t>
   </si>
   <si>
+    <t>恢复102</t>
+  </si>
+  <si>
     <t>体力恢复药水(大)</t>
   </si>
   <si>
@@ -313,6 +348,9 @@
     <t>postion_014</t>
   </si>
   <si>
+    <t>恢复103</t>
+  </si>
+  <si>
     <t>体力恢复药水(特大)</t>
   </si>
   <si>
@@ -322,6 +360,9 @@
     <t>postion_015</t>
   </si>
   <si>
+    <t>恢复104</t>
+  </si>
+  <si>
     <t>究极体力恢复药水</t>
   </si>
   <si>
@@ -331,6 +372,9 @@
     <t>postion_blue_001</t>
   </si>
   <si>
+    <t>恢复105</t>
+  </si>
+  <si>
     <t>魔法攻击药水(小)</t>
   </si>
   <si>
@@ -340,6 +384,9 @@
     <t>postion_blue_002</t>
   </si>
   <si>
+    <t>恢复106</t>
+  </si>
+  <si>
     <t>魔法攻击药水(中)</t>
   </si>
   <si>
@@ -349,6 +396,9 @@
     <t>postion_blue_003</t>
   </si>
   <si>
+    <t>恢复107</t>
+  </si>
+  <si>
     <t>魔法攻击药水(大)</t>
   </si>
   <si>
@@ -358,6 +408,9 @@
     <t>postion_blue_004</t>
   </si>
   <si>
+    <t>恢复108</t>
+  </si>
+  <si>
     <t>魔法攻击药水(特大)</t>
   </si>
   <si>
@@ -367,6 +420,9 @@
     <t>postion_green_003</t>
   </si>
   <si>
+    <t>恢复109</t>
+  </si>
+  <si>
     <t>究极魔法攻击药水</t>
   </si>
   <si>
@@ -376,6 +432,9 @@
     <t>postion_green_004</t>
   </si>
   <si>
+    <t>恢复110</t>
+  </si>
+  <si>
     <t>血量恢复药水(小)</t>
   </si>
   <si>
@@ -385,6 +444,9 @@
     <t>postion_green_005</t>
   </si>
   <si>
+    <t>恢复111</t>
+  </si>
+  <si>
     <t>血量恢复药水(中)</t>
   </si>
   <si>
@@ -394,6 +456,9 @@
     <t>postion_red_004</t>
   </si>
   <si>
+    <t>恢复112</t>
+  </si>
+  <si>
     <t>血量恢复药水(大)</t>
   </si>
   <si>
@@ -403,6 +468,9 @@
     <t>postion_red_005</t>
   </si>
   <si>
+    <t>恢复113</t>
+  </si>
+  <si>
     <t>血量恢复药水(特大)</t>
   </si>
   <si>
@@ -412,6 +480,9 @@
     <t>postion_yellow_005</t>
   </si>
   <si>
+    <t>恢复114</t>
+  </si>
+  <si>
     <t>究极血量恢复药水</t>
   </si>
   <si>
@@ -421,116 +492,22 @@
     <t>postion_yellow_004</t>
   </si>
   <si>
+    <t>恢复115</t>
+  </si>
+  <si>
     <t>卫兵剑</t>
   </si>
   <si>
     <t>卫兵使用的剑</t>
   </si>
   <si>
+    <t>icon_32_2_07</t>
+  </si>
+  <si>
     <t>黄金卫兵剑</t>
   </si>
   <si>
     <t>高级卫兵使用的剑</t>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>一种常用货币</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>非常稀有的货币,可以有多种用途</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemTipsDes</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(list#sep=,),item.ItemTipsDes</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具UI效果描述</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>恢复100MP,恢复3点精力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>恢复100</t>
-  </si>
-  <si>
-    <t>恢复100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>恢复101</t>
-  </si>
-  <si>
-    <t>恢复102</t>
-  </si>
-  <si>
-    <t>恢复103</t>
-  </si>
-  <si>
-    <t>恢复104</t>
-  </si>
-  <si>
-    <t>恢复105</t>
-  </si>
-  <si>
-    <t>恢复106</t>
-  </si>
-  <si>
-    <t>恢复108</t>
-  </si>
-  <si>
-    <t>恢复109</t>
-  </si>
-  <si>
-    <t>恢复110</t>
-  </si>
-  <si>
-    <t>恢复111</t>
-  </si>
-  <si>
-    <t>恢复112</t>
-  </si>
-  <si>
-    <t>恢复113</t>
-  </si>
-  <si>
-    <t>恢复114</t>
-  </si>
-  <si>
-    <t>恢复115</t>
-  </si>
-  <si>
-    <t>恢复107</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_32_2_07</t>
   </si>
   <si>
     <t>icon_32_2_10</t>
@@ -539,8 +516,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -563,17 +546,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -581,30 +556,13 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -614,8 +572,149 @@
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -634,8 +733,182 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -658,51 +931,325 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="差" xfId="2" builtinId="27"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -957,29 +1504,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AG39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.21875" customWidth="1"/>
-    <col min="2" max="2" width="6.77734375" customWidth="1"/>
+    <col min="1" max="1" width="9.21666666666667" customWidth="1"/>
+    <col min="2" max="2" width="6.775" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="5.44140625" customWidth="1"/>
-    <col min="9" max="10" width="13.109375" customWidth="1"/>
+    <col min="4" max="8" width="12.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="5.44166666666667" customWidth="1"/>
+    <col min="10" max="11" width="13.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:33">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -992,28 +1539,30 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>105</v>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="L1"/>
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="M1"/>
       <c r="N1"/>
       <c r="O1"/>
@@ -1034,8 +1583,9 @@
       <c r="AD1"/>
       <c r="AE1"/>
       <c r="AF1"/>
-    </row>
-    <row r="2" spans="1:32" s="1" customFormat="1">
+      <c r="AG1"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:33">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1049,7 +1599,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2"/>
+      <c r="L2" s="3"/>
       <c r="M2"/>
       <c r="N2"/>
       <c r="O2"/>
@@ -1070,42 +1620,45 @@
       <c r="AD2"/>
       <c r="AE2"/>
       <c r="AF2"/>
-    </row>
-    <row r="3" spans="1:32" s="2" customFormat="1" ht="60">
-      <c r="A3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
+      <c r="AG2"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="49.5" spans="1:33">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="L3"/>
+        <v>13</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="M3"/>
       <c r="N3"/>
       <c r="O3"/>
@@ -1126,26 +1679,27 @@
       <c r="AD3"/>
       <c r="AE3"/>
       <c r="AF3"/>
-    </row>
-    <row r="4" spans="1:32" s="2" customFormat="1">
-      <c r="A4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4"/>
+      <c r="AG3"/>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:33">
+      <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4"/>
@@ -1166,42 +1720,45 @@
       <c r="AD4"/>
       <c r="AE4"/>
       <c r="AF4"/>
-    </row>
-    <row r="5" spans="1:32" s="1" customFormat="1">
+      <c r="AG4"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:33">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>107</v>
+        <v>22</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="L5"/>
+        <v>28</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
@@ -1222,38 +1779,41 @@
       <c r="AD5"/>
       <c r="AE5"/>
       <c r="AF5"/>
-    </row>
-    <row r="6" spans="1:32" s="1" customFormat="1">
+      <c r="AG5"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:33">
       <c r="A6" s="7"/>
       <c r="B6" s="7">
         <v>1</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>109</v>
+      <c r="C6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="E6" s="7">
         <v>2</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="7">
-        <v>100</v>
-      </c>
-      <c r="I6" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7">
+        <v>33</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>100</v>
+      </c>
+      <c r="J6" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
         <v>4</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6"/>
+      <c r="L6" s="7"/>
       <c r="M6"/>
       <c r="N6"/>
       <c r="O6"/>
@@ -1274,38 +1834,41 @@
       <c r="AD6"/>
       <c r="AE6"/>
       <c r="AF6"/>
-    </row>
-    <row r="7" spans="1:32" s="1" customFormat="1">
+      <c r="AG6"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:33">
       <c r="A7" s="7"/>
       <c r="B7" s="7">
         <v>2</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>111</v>
+      <c r="C7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="E7" s="7">
         <v>2</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="7">
-        <v>100</v>
-      </c>
-      <c r="I7" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7">
+        <v>36</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>100</v>
+      </c>
+      <c r="J7" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
         <v>4</v>
       </c>
-      <c r="K7" s="7"/>
-      <c r="L7"/>
+      <c r="L7" s="7"/>
       <c r="M7"/>
       <c r="N7"/>
       <c r="O7"/>
@@ -1326,860 +1889,896 @@
       <c r="AD7"/>
       <c r="AE7"/>
       <c r="AF7"/>
-    </row>
-    <row r="8" spans="1:32">
+      <c r="AG7"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="7"/>
       <c r="B8" s="7">
         <v>101</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E8" s="7">
         <v>3</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="7">
-        <v>100</v>
-      </c>
-      <c r="I8" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7">
+        <v>33</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>100</v>
+      </c>
+      <c r="J8" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
         <v>4</v>
       </c>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:32">
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="7"/>
       <c r="B9" s="7">
         <v>102</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E9" s="7">
         <v>3</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="7">
-        <v>100</v>
-      </c>
-      <c r="I9" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7">
+        <v>36</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
+        <v>100</v>
+      </c>
+      <c r="J9" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
         <v>4</v>
       </c>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:32">
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="7"/>
       <c r="B10" s="7">
         <v>103</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E10" s="7">
         <v>3</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="7">
-        <v>100</v>
-      </c>
-      <c r="I10" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7">
+        <v>43</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>100</v>
+      </c>
+      <c r="J10" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7">
         <v>5</v>
       </c>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="1:32">
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="2:11">
       <c r="B11" s="7">
         <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>100</v>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32">
+        <v>46</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
       <c r="B12" s="7">
         <v>105</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E12">
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>100</v>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12">
+        <v>49</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>100</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="2:11">
       <c r="B13" s="7">
         <v>106</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E13">
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>100</v>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32">
+        <v>52</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>100</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
       <c r="B14" s="7">
         <v>107</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E14">
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>100</v>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14">
+        <v>55</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>100</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="2:11">
       <c r="B15" s="7">
         <v>108</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E15">
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>100</v>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15">
+        <v>57</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>100</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="2:12">
       <c r="B16" s="7">
         <v>109</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>100</v>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11">
+        <v>60</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>100</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
       <c r="B17" s="7">
         <v>110</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>100</v>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11">
+        <v>64</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>100</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
       <c r="B18" s="7">
         <v>111</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>100</v>
-      </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18">
+        <v>68</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>100</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18">
         <v>2</v>
       </c>
-      <c r="K18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11">
+      <c r="L18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
       <c r="B19" s="7">
         <v>112</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>100</v>
-      </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11">
+        <v>71</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>100</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
       <c r="B20" s="7">
         <v>113</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>100</v>
-      </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11">
+        <v>75</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>100</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
       <c r="B21" s="7">
         <v>114</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>100</v>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11">
+        <v>79</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>100</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
       <c r="B22" s="7">
         <v>115</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>100</v>
-      </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22">
+        <v>83</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>100</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22">
         <v>2</v>
       </c>
-      <c r="K22" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11">
+      <c r="L22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
       <c r="B23" s="7">
         <v>116</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>100</v>
-      </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23">
+        <v>87</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>100</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23">
         <v>2</v>
       </c>
-      <c r="K23" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11">
+      <c r="L23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
       <c r="B24" s="7">
         <v>117</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>73</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>100</v>
-      </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24">
+        <v>91</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>100</v>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24">
         <v>5</v>
       </c>
-      <c r="K24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11">
+      <c r="L24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
       <c r="B25" s="7">
         <v>118</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>76</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>100</v>
-      </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11">
+        <v>95</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>100</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
       <c r="B26" s="7">
         <v>119</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>79</v>
-      </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>100</v>
-      </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26">
+        <v>99</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>100</v>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26">
         <v>5</v>
       </c>
-      <c r="K26" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11">
+      <c r="L26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
       <c r="B27" s="7">
         <v>120</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>82</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>100</v>
-      </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27">
+        <v>103</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>100</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27">
         <v>2</v>
       </c>
-      <c r="K27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11">
+      <c r="L27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
       <c r="B28" s="7">
         <v>121</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="D28" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>100</v>
-      </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28">
+        <v>107</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>100</v>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28">
         <v>2</v>
       </c>
-      <c r="K28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11">
+      <c r="L28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
       <c r="B29" s="7">
         <v>122</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>88</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>100</v>
-      </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11">
+        <v>111</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>100</v>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
       <c r="B30" s="7">
         <v>123</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="D30" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>91</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>100</v>
-      </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11">
+        <v>115</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>100</v>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
       <c r="B31" s="7">
         <v>124</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="D31" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>94</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>100</v>
-      </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="K31" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11">
+        <v>119</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>100</v>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
       <c r="B32" s="7">
         <v>125</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="D32" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>97</v>
-      </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>100</v>
-      </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32">
+        <v>123</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>100</v>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32">
         <v>2</v>
       </c>
-      <c r="K32" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11">
+      <c r="L32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12">
       <c r="B33" s="7">
         <v>126</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="D33" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>100</v>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>100</v>
-      </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33">
+        <v>127</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>100</v>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33">
         <v>2</v>
       </c>
-      <c r="K33" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11">
+      <c r="L33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12">
       <c r="B34">
         <v>10001</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="D34" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="E34">
         <v>4</v>
       </c>
       <c r="F34" t="s">
-        <v>133</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>100</v>
-      </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34" s="8"/>
+        <v>131</v>
+      </c>
+      <c r="G34" s="7">
+        <v>2</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>100</v>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34" s="10"/>
     </row>
     <row r="35" spans="2:11">
       <c r="B35">
         <v>10002</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="D35" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="E35">
         <v>4</v>
@@ -2187,23 +2786,38 @@
       <c r="F35" t="s">
         <v>134</v>
       </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>100</v>
-      </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
+      <c r="G35" s="7">
+        <v>5</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>100</v>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="7:7">
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="7:7">
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="7:7">
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="7:7">
+      <c r="G39" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Luban/Config/Datas/item1.xlsx
+++ b/Luban/Config/Datas/item1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\TEngine-main\Luban\Config\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C38E0EA-C2CB-4163-9397-AA9ED0C41470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="E5" authorId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -49,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="141">
   <si>
     <t>##var</t>
   </si>
@@ -512,18 +518,34 @@
   <si>
     <t>icon_32_2_10</t>
   </si>
+  <si>
+    <t>Michael Jackson 红色舞裤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了纪念 Michael Jackson's 制作而成红色染料裤子</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_Leg_1</t>
+  </si>
+  <si>
+    <t>钢铁战靴</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>士兵日常穿戴的鞋子,防御力非常高</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_Shoe_1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -573,136 +595,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -713,8 +605,23 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -733,182 +640,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -931,322 +664,43 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1504,29 +958,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AG39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AG37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9.21666666666667" customWidth="1"/>
-    <col min="2" max="2" width="6.775" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="8" width="12.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="5.44166666666667" customWidth="1"/>
-    <col min="10" max="11" width="13.1083333333333" customWidth="1"/>
+    <col min="4" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="5.44140625" customWidth="1"/>
+    <col min="10" max="11" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:33">
+    <row r="1" spans="1:33" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1585,7 +1039,7 @@
       <c r="AF1"/>
       <c r="AG1"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:33">
+    <row r="2" spans="1:33" s="1" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1622,7 +1076,7 @@
       <c r="AF2"/>
       <c r="AG2"/>
     </row>
-    <row r="3" s="2" customFormat="1" ht="49.5" spans="1:33">
+    <row r="3" spans="1:33" s="2" customFormat="1" ht="60">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1656,7 +1110,7 @@
       <c r="K3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="8" t="s">
         <v>16</v>
       </c>
       <c r="M3"/>
@@ -1681,7 +1135,7 @@
       <c r="AF3"/>
       <c r="AG3"/>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:33">
+    <row r="4" spans="1:33" s="2" customFormat="1">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
@@ -1722,7 +1176,7 @@
       <c r="AF4"/>
       <c r="AG4"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:33">
+    <row r="5" spans="1:33" s="1" customFormat="1">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -1781,39 +1235,39 @@
       <c r="AF5"/>
       <c r="AG5"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:33">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8" t="s">
+    <row r="6" spans="1:33" s="1" customFormat="1">
+      <c r="A6"/>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6">
         <v>2</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>100</v>
-      </c>
-      <c r="J6" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>4</v>
       </c>
-      <c r="L6" s="7"/>
+      <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
       <c r="O6"/>
@@ -1836,39 +1290,39 @@
       <c r="AF6"/>
       <c r="AG6"/>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:33">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7">
+    <row r="7" spans="1:33" s="1" customFormat="1">
+      <c r="A7"/>
+      <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7">
         <v>2</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>100</v>
-      </c>
-      <c r="J7" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>4</v>
       </c>
-      <c r="L7" s="7"/>
+      <c r="L7"/>
       <c r="M7"/>
       <c r="N7"/>
       <c r="O7"/>
@@ -1891,110 +1345,104 @@
       <c r="AF7"/>
       <c r="AG7"/>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7">
+    <row r="8" spans="1:33">
+      <c r="B8">
         <v>101</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>100</v>
-      </c>
-      <c r="J8" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>4</v>
       </c>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7">
+    </row>
+    <row r="9" spans="1:33">
+      <c r="B9">
         <v>102</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9">
         <v>3</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" s="7">
-        <v>100</v>
-      </c>
-      <c r="J9" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>100</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>4</v>
       </c>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7">
+    </row>
+    <row r="10" spans="1:33">
+      <c r="B10">
         <v>103</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10">
         <v>3</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="7">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>100</v>
-      </c>
-      <c r="J10" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" s="7">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>5</v>
       </c>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="7">
+    </row>
+    <row r="11" spans="1:33">
+      <c r="B11">
         <v>104</v>
       </c>
       <c r="C11" t="s">
@@ -2009,7 +1457,6 @@
       <c r="F11" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="7"/>
       <c r="H11" t="b">
         <v>1</v>
       </c>
@@ -2023,8 +1470,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="7">
+    <row r="12" spans="1:33">
+      <c r="B12">
         <v>105</v>
       </c>
       <c r="C12" t="s">
@@ -2039,7 +1486,6 @@
       <c r="F12" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="7"/>
       <c r="H12" t="b">
         <v>1</v>
       </c>
@@ -2053,8 +1499,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="7">
+    <row r="13" spans="1:33">
+      <c r="B13">
         <v>106</v>
       </c>
       <c r="C13" t="s">
@@ -2069,7 +1515,6 @@
       <c r="F13" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="7"/>
       <c r="H13" t="b">
         <v>1</v>
       </c>
@@ -2083,8 +1528,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="7">
+    <row r="14" spans="1:33">
+      <c r="B14">
         <v>107</v>
       </c>
       <c r="C14" t="s">
@@ -2099,7 +1544,6 @@
       <c r="F14" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="7"/>
       <c r="H14" t="b">
         <v>1</v>
       </c>
@@ -2113,8 +1557,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="7">
+    <row r="15" spans="1:33">
+      <c r="B15">
         <v>108</v>
       </c>
       <c r="C15" t="s">
@@ -2129,7 +1573,6 @@
       <c r="F15" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="7"/>
       <c r="H15" t="b">
         <v>1</v>
       </c>
@@ -2143,8 +1586,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:12">
-      <c r="B16" s="7">
+    <row r="16" spans="1:33">
+      <c r="B16">
         <v>109</v>
       </c>
       <c r="C16" t="s">
@@ -2159,7 +1602,6 @@
       <c r="F16" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="7"/>
       <c r="H16" t="b">
         <v>1</v>
       </c>
@@ -2172,12 +1614,12 @@
       <c r="K16">
         <v>1</v>
       </c>
-      <c r="L16" s="10" t="s">
+      <c r="L16" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="7">
+      <c r="B17">
         <v>110</v>
       </c>
       <c r="C17" t="s">
@@ -2192,7 +1634,6 @@
       <c r="F17" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="7"/>
       <c r="H17" t="b">
         <v>1</v>
       </c>
@@ -2205,12 +1646,12 @@
       <c r="K17">
         <v>1</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="L17" s="7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="7">
+      <c r="B18">
         <v>111</v>
       </c>
       <c r="C18" t="s">
@@ -2225,7 +1666,6 @@
       <c r="F18" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="7"/>
       <c r="H18" t="b">
         <v>1</v>
       </c>
@@ -2243,7 +1683,7 @@
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="7">
+      <c r="B19">
         <v>112</v>
       </c>
       <c r="C19" t="s">
@@ -2258,7 +1698,6 @@
       <c r="F19" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="7"/>
       <c r="H19" t="b">
         <v>1</v>
       </c>
@@ -2276,7 +1715,7 @@
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="7">
+      <c r="B20">
         <v>113</v>
       </c>
       <c r="C20" t="s">
@@ -2291,7 +1730,6 @@
       <c r="F20" t="s">
         <v>75</v>
       </c>
-      <c r="G20" s="7"/>
       <c r="H20" t="b">
         <v>1</v>
       </c>
@@ -2309,7 +1747,7 @@
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="7">
+      <c r="B21">
         <v>114</v>
       </c>
       <c r="C21" t="s">
@@ -2324,7 +1762,6 @@
       <c r="F21" t="s">
         <v>79</v>
       </c>
-      <c r="G21" s="7"/>
       <c r="H21" t="b">
         <v>1</v>
       </c>
@@ -2342,7 +1779,7 @@
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="7">
+      <c r="B22">
         <v>115</v>
       </c>
       <c r="C22" t="s">
@@ -2357,7 +1794,6 @@
       <c r="F22" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="7"/>
       <c r="H22" t="b">
         <v>1</v>
       </c>
@@ -2375,7 +1811,7 @@
       </c>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="7">
+      <c r="B23">
         <v>116</v>
       </c>
       <c r="C23" t="s">
@@ -2390,7 +1826,6 @@
       <c r="F23" t="s">
         <v>87</v>
       </c>
-      <c r="G23" s="7"/>
       <c r="H23" t="b">
         <v>1</v>
       </c>
@@ -2408,7 +1843,7 @@
       </c>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="7">
+      <c r="B24">
         <v>117</v>
       </c>
       <c r="C24" t="s">
@@ -2423,7 +1858,6 @@
       <c r="F24" t="s">
         <v>91</v>
       </c>
-      <c r="G24" s="7"/>
       <c r="H24" t="b">
         <v>1</v>
       </c>
@@ -2441,7 +1875,7 @@
       </c>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="7">
+      <c r="B25">
         <v>118</v>
       </c>
       <c r="C25" t="s">
@@ -2456,7 +1890,6 @@
       <c r="F25" t="s">
         <v>95</v>
       </c>
-      <c r="G25" s="7"/>
       <c r="H25" t="b">
         <v>1</v>
       </c>
@@ -2469,12 +1902,12 @@
       <c r="K25">
         <v>1</v>
       </c>
-      <c r="L25" s="10" t="s">
+      <c r="L25" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="7">
+      <c r="B26">
         <v>119</v>
       </c>
       <c r="C26" t="s">
@@ -2489,7 +1922,6 @@
       <c r="F26" t="s">
         <v>99</v>
       </c>
-      <c r="G26" s="7"/>
       <c r="H26" t="b">
         <v>1</v>
       </c>
@@ -2507,7 +1939,7 @@
       </c>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="7">
+      <c r="B27">
         <v>120</v>
       </c>
       <c r="C27" t="s">
@@ -2522,7 +1954,6 @@
       <c r="F27" t="s">
         <v>103</v>
       </c>
-      <c r="G27" s="7"/>
       <c r="H27" t="b">
         <v>1</v>
       </c>
@@ -2540,7 +1971,7 @@
       </c>
     </row>
     <row r="28" spans="2:12">
-      <c r="B28" s="7">
+      <c r="B28">
         <v>121</v>
       </c>
       <c r="C28" t="s">
@@ -2555,7 +1986,6 @@
       <c r="F28" t="s">
         <v>107</v>
       </c>
-      <c r="G28" s="7"/>
       <c r="H28" t="b">
         <v>1</v>
       </c>
@@ -2573,7 +2003,7 @@
       </c>
     </row>
     <row r="29" spans="2:12">
-      <c r="B29" s="7">
+      <c r="B29">
         <v>122</v>
       </c>
       <c r="C29" t="s">
@@ -2588,7 +2018,6 @@
       <c r="F29" t="s">
         <v>111</v>
       </c>
-      <c r="G29" s="7"/>
       <c r="H29" t="b">
         <v>1</v>
       </c>
@@ -2606,7 +2035,7 @@
       </c>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="7">
+      <c r="B30">
         <v>123</v>
       </c>
       <c r="C30" t="s">
@@ -2621,7 +2050,6 @@
       <c r="F30" t="s">
         <v>115</v>
       </c>
-      <c r="G30" s="7"/>
       <c r="H30" t="b">
         <v>1</v>
       </c>
@@ -2639,7 +2067,7 @@
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="7">
+      <c r="B31">
         <v>124</v>
       </c>
       <c r="C31" t="s">
@@ -2654,7 +2082,6 @@
       <c r="F31" t="s">
         <v>119</v>
       </c>
-      <c r="G31" s="7"/>
       <c r="H31" t="b">
         <v>1</v>
       </c>
@@ -2672,7 +2099,7 @@
       </c>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="7">
+      <c r="B32">
         <v>125</v>
       </c>
       <c r="C32" t="s">
@@ -2687,7 +2114,6 @@
       <c r="F32" t="s">
         <v>123</v>
       </c>
-      <c r="G32" s="7"/>
       <c r="H32" t="b">
         <v>1</v>
       </c>
@@ -2705,7 +2131,7 @@
       </c>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="7">
+      <c r="B33">
         <v>126</v>
       </c>
       <c r="C33" t="s">
@@ -2720,7 +2146,6 @@
       <c r="F33" t="s">
         <v>127</v>
       </c>
-      <c r="G33" s="7"/>
       <c r="H33" t="b">
         <v>1</v>
       </c>
@@ -2753,7 +2178,7 @@
       <c r="F34" t="s">
         <v>131</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34">
         <v>2</v>
       </c>
       <c r="H34" t="b">
@@ -2768,9 +2193,9 @@
       <c r="K34">
         <v>0</v>
       </c>
-      <c r="L34" s="10"/>
-    </row>
-    <row r="35" spans="2:11">
+      <c r="L34" s="7"/>
+    </row>
+    <row r="35" spans="2:12">
       <c r="B35">
         <v>10002</v>
       </c>
@@ -2786,7 +2211,7 @@
       <c r="F35" t="s">
         <v>134</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35">
         <v>5</v>
       </c>
       <c r="H35" t="b">
@@ -2802,22 +2227,74 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="7:7">
-      <c r="G36" s="7"/>
-    </row>
-    <row r="37" spans="7:7">
-      <c r="G37" s="7"/>
-    </row>
-    <row r="38" spans="7:7">
-      <c r="G38" s="7"/>
-    </row>
-    <row r="39" spans="7:7">
-      <c r="G39" s="7"/>
+    <row r="36" spans="2:12">
+      <c r="B36">
+        <v>20001</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36" t="s">
+        <v>137</v>
+      </c>
+      <c r="G36">
+        <v>5</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>100</v>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12">
+      <c r="B37">
+        <v>30001</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="F37" t="s">
+        <v>140</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>100</v>
+      </c>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Luban/Config/Datas/item1.xlsx
+++ b/Luban/Config/Datas/item1.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\TEngine-main\Luban\Config\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C38E0EA-C2CB-4163-9397-AA9ED0C41470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +14,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="147">
   <si>
     <t>##var</t>
   </si>
@@ -520,49 +514,55 @@
   </si>
   <si>
     <t>Michael Jackson 红色舞裤</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>为了纪念 Michael Jackson's 制作而成红色染料裤子</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>icon_Leg_1</t>
   </si>
   <si>
     <t>钢铁战靴</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>士兵日常穿戴的鞋子,防御力非常高</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>icon_Shoe_1</t>
+  </si>
+  <si>
+    <t>屎头布</t>
+  </si>
+  <si>
+    <t>有着黄色的液体的头巾</t>
+  </si>
+  <si>
+    <t>Icon_Helmet_1</t>
+  </si>
+  <si>
+    <t>钢铁胸甲</t>
+  </si>
+  <si>
+    <t>士兵日常穿戴的护甲,防御力非常高</t>
+  </si>
+  <si>
+    <t>Icon_Armor_1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -595,6 +595,136 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -605,23 +735,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -640,8 +755,182 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -664,43 +953,321 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="差" xfId="2" builtinId="27"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -958,29 +1525,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AG39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.21875" customWidth="1"/>
-    <col min="2" max="2" width="6.77734375" customWidth="1"/>
+    <col min="1" max="1" width="9.21666666666667" customWidth="1"/>
+    <col min="2" max="2" width="6.775" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="5.44140625" customWidth="1"/>
-    <col min="10" max="11" width="13.109375" customWidth="1"/>
+    <col min="4" max="8" width="12.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="5.44166666666667" customWidth="1"/>
+    <col min="10" max="11" width="13.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:33">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1039,7 +1606,7 @@
       <c r="AF1"/>
       <c r="AG1"/>
     </row>
-    <row r="2" spans="1:33" s="1" customFormat="1">
+    <row r="2" s="1" customFormat="1" spans="1:33">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1076,7 +1643,7 @@
       <c r="AF2"/>
       <c r="AG2"/>
     </row>
-    <row r="3" spans="1:33" s="2" customFormat="1" ht="60">
+    <row r="3" s="2" customFormat="1" ht="49.5" spans="1:33">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1110,7 +1677,7 @@
       <c r="K3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="9" t="s">
         <v>16</v>
       </c>
       <c r="M3"/>
@@ -1135,7 +1702,7 @@
       <c r="AF3"/>
       <c r="AG3"/>
     </row>
-    <row r="4" spans="1:33" s="2" customFormat="1">
+    <row r="4" s="2" customFormat="1" spans="1:33">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
@@ -1176,7 +1743,7 @@
       <c r="AF4"/>
       <c r="AG4"/>
     </row>
-    <row r="5" spans="1:33" s="1" customFormat="1">
+    <row r="5" s="1" customFormat="1" spans="1:33">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -1235,7 +1802,7 @@
       <c r="AF5"/>
       <c r="AG5"/>
     </row>
-    <row r="6" spans="1:33" s="1" customFormat="1">
+    <row r="6" s="1" customFormat="1" spans="1:33">
       <c r="A6"/>
       <c r="B6">
         <v>1</v>
@@ -1290,7 +1857,7 @@
       <c r="AF6"/>
       <c r="AG6"/>
     </row>
-    <row r="7" spans="1:33" s="1" customFormat="1">
+    <row r="7" s="1" customFormat="1" spans="1:33">
       <c r="A7"/>
       <c r="B7">
         <v>2</v>
@@ -1345,7 +1912,7 @@
       <c r="AF7"/>
       <c r="AG7"/>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="2:11">
       <c r="B8">
         <v>101</v>
       </c>
@@ -1377,7 +1944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="2:11">
       <c r="B9">
         <v>102</v>
       </c>
@@ -1409,7 +1976,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="2:11">
       <c r="B10">
         <v>103</v>
       </c>
@@ -1441,7 +2008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="2:11">
       <c r="B11">
         <v>104</v>
       </c>
@@ -1470,7 +2037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="2:11">
       <c r="B12">
         <v>105</v>
       </c>
@@ -1499,7 +2066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="2:11">
       <c r="B13">
         <v>106</v>
       </c>
@@ -1528,7 +2095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="2:11">
       <c r="B14">
         <v>107</v>
       </c>
@@ -1557,7 +2124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="2:11">
       <c r="B15">
         <v>108</v>
       </c>
@@ -1586,7 +2153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="2:12">
       <c r="B16">
         <v>109</v>
       </c>
@@ -2195,7 +2762,7 @@
       </c>
       <c r="L34" s="7"/>
     </row>
-    <row r="35" spans="2:12">
+    <row r="35" spans="2:11">
       <c r="B35">
         <v>10002</v>
       </c>
@@ -2227,14 +2794,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:12">
+    <row r="36" spans="2:11">
       <c r="B36">
         <v>20001</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="8" t="s">
         <v>136</v>
       </c>
       <c r="E36">
@@ -2259,14 +2826,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="2:12">
+    <row r="37" spans="2:11">
       <c r="B37">
         <v>30001</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="8" t="s">
         <v>139</v>
       </c>
       <c r="E37">
@@ -2291,10 +2858,74 @@
         <v>3</v>
       </c>
     </row>
+    <row r="38" spans="2:11">
+      <c r="B38">
+        <v>40001</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38" t="s">
+        <v>143</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>100</v>
+      </c>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39">
+        <v>50001</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39" t="s">
+        <v>146</v>
+      </c>
+      <c r="G39">
+        <v>5</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>100</v>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>